--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7C5BE-8A81-44D6-8E3C-AB72E0E31171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA15BC2-6EDF-4E93-85B4-88F43AF89467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1121"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD8E1E1-FC13-4148-9CA4-43DA542E5AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1741574-578E-43F2-864D-CFBC2993DD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B5562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE821DD4-3174-4183-81B6-AEF2DF4EB661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A67C79B-337E-47B5-8A12-48A370613A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A67C79B-337E-47B5-8A12-48A370613A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85812F89-E34D-4601-9DB9-2D9D3CB9CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85812F89-E34D-4601-9DB9-2D9D3CB9CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12592F8-8AC9-4B53-8461-1A0E80DE449F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12592F8-8AC9-4B53-8461-1A0E80DE449F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0914A-EB2C-4D15-8131-58E707BBF408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0914A-EB2C-4D15-8131-58E707BBF408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E5A9A-FC43-462D-97AA-8DAE6468FC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EATL\PycharmProjects\WebScapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1282D627-8E5E-4A95-AF15-040288688C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,11 +330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B2424"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EATL\PycharmProjects\WebScapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE7D4C-B262-4E35-A4A1-E19A6B88FEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE7D4C-B262-4E35-A4A1-E19A6B88FEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F8C50-DE0B-40F9-81C2-9F7A1162923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F8C50-DE0B-40F9-81C2-9F7A1162923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67CB88-C3E4-41C4-A117-F16EE0A424E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67CB88-C3E4-41C4-A117-F16EE0A424E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD19B6E-F451-4999-8E80-CC1AA2BBE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD19B6E-F451-4999-8E80-CC1AA2BBE7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FCDD84-8F3D-4ED0-BD4F-931D701F88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FCDD84-8F3D-4ED0-BD4F-931D701F88C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25846D1-C496-496C-8BBF-CC7FB7119C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25846D1-C496-496C-8BBF-CC7FB7119C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF30C4-52FE-4E19-8077-08B0F34241A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBF30C4-52FE-4E19-8077-08B0F34241A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017F902-24A6-4573-A75C-F5363DD93691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017F902-24A6-4573-A75C-F5363DD93691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE09D9-073E-4E6E-84B0-924DA8C0CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE09D9-073E-4E6E-84B0-924DA8C0CCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896EECC-7928-475D-AA70-03D045C4E2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BookList.xlsx
+++ b/BookList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E896EECC-7928-475D-AA70-03D045C4E2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7530CB-EFD0-4ACD-8BDD-BB57791CD306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
